--- a/FIN-6322/Chapter 10/Chapter 10 practice.xlsx
+++ b/FIN-6322/Chapter 10/Chapter 10 practice.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twodegrees1-my.sharepoint.com/personal/rahul_kotian_slalom_com/Documents/Documents/Personal/UTD/Summer - 24/FIN-6322/Chapter 10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_F25DC773A252ABDACC1048F6399F61A85BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32C26DCB-5AC4-48BE-9886-9DE72E54B17B}"/>
+  <xr:revisionPtr revIDLastSave="431" documentId="11_F25DC773A252ABDACC1048F6399F61A85BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5480DCC-EF87-49E3-B4AC-BAC6F1A459FA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Ex 10-8" sheetId="2" r:id="rId2"/>
+    <sheet name="Direct Capitalization" sheetId="9" r:id="rId2"/>
+    <sheet name="Ex 10-8" sheetId="2" r:id="rId3"/>
+    <sheet name="GIM" sheetId="7" r:id="rId4"/>
+    <sheet name="Cash flow" sheetId="3" r:id="rId5"/>
+    <sheet name="highest and best" sheetId="5" r:id="rId6"/>
+    <sheet name="Mortgage Eq Cap" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +41,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="109">
   <si>
     <t>GIM</t>
   </si>
@@ -112,16 +139,296 @@
   </si>
   <si>
     <t>Growth rate</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>%Growth</t>
+  </si>
+  <si>
+    <t>(req, rate of return)</t>
+  </si>
+  <si>
+    <t>Holding period</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>r=</t>
+  </si>
+  <si>
+    <t>g(year 10)</t>
+  </si>
+  <si>
+    <t>Implied going in cap rate</t>
+  </si>
+  <si>
+    <t>Chapter 10</t>
+  </si>
+  <si>
+    <t>Highest and Best Use Analysis</t>
+  </si>
+  <si>
+    <t>Data Input Box:</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Apartment</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>NOI yr 1</t>
+  </si>
+  <si>
+    <r>
+      <t>Return or</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> r</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Growth or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>g</t>
+    </r>
+  </si>
+  <si>
+    <t>Building Costs</t>
+  </si>
+  <si>
+    <t>HIGHEST and BEST USE ANALYSIS:</t>
+  </si>
+  <si>
+    <t>Cap @  r-g</t>
+  </si>
+  <si>
+    <t>Implied Value</t>
+  </si>
+  <si>
+    <t>Less Cost</t>
+  </si>
+  <si>
+    <t>Implied Land Value</t>
+  </si>
+  <si>
+    <t>Valuation of apartment project</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>/month/unit</t>
+  </si>
+  <si>
+    <t>a)</t>
+  </si>
+  <si>
+    <t>Similar Properties</t>
+  </si>
+  <si>
+    <t>Comp</t>
+  </si>
+  <si>
+    <t>GI Multiplier</t>
+  </si>
+  <si>
+    <t>"Comp"</t>
+  </si>
+  <si>
+    <t>Rent/unit</t>
+  </si>
+  <si>
+    <t>Gross Inc.</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Price/GI</t>
+  </si>
+  <si>
+    <t>Price/unit</t>
+  </si>
+  <si>
+    <t>Using GMI (avergae)</t>
+  </si>
+  <si>
+    <t>Using Comps</t>
+  </si>
+  <si>
+    <t>10-9</t>
+  </si>
+  <si>
+    <t>Subject property data</t>
+  </si>
+  <si>
+    <t>DCR</t>
+  </si>
+  <si>
+    <t>interest rate</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Reqd rate</t>
+  </si>
+  <si>
+    <t>Lender data</t>
+  </si>
+  <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t>Figure out max financing by figuring max payment</t>
+  </si>
+  <si>
+    <t>Max loan pyt/year</t>
+  </si>
+  <si>
+    <t>annually</t>
+  </si>
+  <si>
+    <t>Max mthly payment</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>Convert this to a max loan</t>
+  </si>
+  <si>
+    <t>Amortization</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Max loan amount</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <t>Figure out "loan payoff" after 5 years as part of proforma to value the "equity" position</t>
+  </si>
+  <si>
+    <t>Amort remaining</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> years</t>
+  </si>
+  <si>
+    <t>PV of loan end of yr5</t>
+  </si>
+  <si>
+    <t>Step 3</t>
+  </si>
+  <si>
+    <t>Show all cash flows(run a pro-forma)</t>
+  </si>
+  <si>
+    <t>Going out cap rate</t>
+  </si>
+  <si>
+    <t>Less:</t>
+  </si>
+  <si>
+    <t>Debt Service</t>
+  </si>
+  <si>
+    <t>Sale at end of year 5</t>
+  </si>
+  <si>
+    <t>Payoff debt at sale</t>
+  </si>
+  <si>
+    <t>CF to Equity</t>
+  </si>
+  <si>
+    <t>Required rate on equity</t>
+  </si>
+  <si>
+    <t>PV of Equity</t>
+  </si>
+  <si>
+    <t>b)</t>
+  </si>
+  <si>
+    <t>Total (Present) Value of property -Mtg Eq Cap Method</t>
+  </si>
+  <si>
+    <t>Initial Debt on Project</t>
+  </si>
+  <si>
+    <t>Value of Equity</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>c)</t>
+  </si>
+  <si>
+    <t>Implied overall cap rate (going in)</t>
+  </si>
+  <si>
+    <t>NOI year 1</t>
+  </si>
+  <si>
+    <t>Value of property</t>
+  </si>
+  <si>
+    <t>Going in cap rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="7">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,8 +443,96 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="20"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,8 +551,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -174,12 +593,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -193,10 +792,150 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="11" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="7" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="7" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -476,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -586,7 +1325,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -649,11 +1388,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0599D7-90C0-4E79-B07C-D4515F237555}">
+  <dimension ref="C3:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1275000</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7">
+        <f>E3/E4</f>
+        <v>21250000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1019AF57-24D6-461C-A133-157B50BB460F}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -778,7 +1561,7 @@
         <v>338800</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:J11" si="0">C7</f>
+        <f t="shared" ref="C11:I11" si="0">C7</f>
         <v>355740</v>
       </c>
       <c r="D11">
@@ -827,6 +1610,1523 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97624026-A075-449D-978A-50EC8F26C4AA}">
+  <dimension ref="A3:H22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="28">
+        <v>600</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>550</v>
+      </c>
+      <c r="D12">
+        <v>140</v>
+      </c>
+      <c r="E12">
+        <f>D12*C12*12</f>
+        <v>924000</v>
+      </c>
+      <c r="F12" s="10">
+        <v>9000000</v>
+      </c>
+      <c r="G12">
+        <f>F12/E12</f>
+        <v>9.7402597402597397</v>
+      </c>
+      <c r="H12">
+        <f>F12/D12</f>
+        <v>64285.714285714283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>650</v>
+      </c>
+      <c r="D13">
+        <v>90</v>
+      </c>
+      <c r="E13">
+        <f>D13*C13*12</f>
+        <v>702000</v>
+      </c>
+      <c r="F13" s="10">
+        <v>6600000</v>
+      </c>
+      <c r="G13">
+        <f>F13/E13</f>
+        <v>9.4017094017094021</v>
+      </c>
+      <c r="H13">
+        <f>F13/D13</f>
+        <v>73333.333333333328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>600</v>
+      </c>
+      <c r="D17">
+        <v>120</v>
+      </c>
+      <c r="E17">
+        <f>C17*D17*12</f>
+        <v>864000</v>
+      </c>
+      <c r="F17" s="5">
+        <f>G17*E17</f>
+        <v>8269330.6693306696</v>
+      </c>
+      <c r="G17">
+        <f>AVERAGE(G12:G13)</f>
+        <v>9.5709845709845709</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>120</v>
+      </c>
+      <c r="F22" s="5">
+        <f>D22*H22</f>
+        <v>8257142.8571428563</v>
+      </c>
+      <c r="H22">
+        <f>AVERAGE(H12:H13)</f>
+        <v>68809.523809523802</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6AD5D2-3583-49FF-B229-4C133BB24E41}">
+  <dimension ref="A2:M28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6328125" customWidth="1"/>
+    <col min="13" max="13" width="12.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>338800</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>355740</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G12" si="0">D3*(1+E4)</f>
+        <v>355740</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>373527</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" ref="E5:E12" si="1">(D5-D4)/D4</f>
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="0"/>
+        <v>373527</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>388468</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="1"/>
+        <v>3.9999785825388795E-2</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>388468.00000000006</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5">
+        <v>404007</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="1"/>
+        <v>4.0000720780089996E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>404007.00000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5">
+        <v>416127</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="1"/>
+        <v>2.9999480207026117E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>416126.99999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5">
+        <v>428611</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="1"/>
+        <v>3.000045659137715E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>428611</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5">
+        <v>441469</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="1"/>
+        <v>2.9999230071090104E-2</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>441469</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5">
+        <v>450299</v>
+      </c>
+      <c r="E11" s="12">
+        <f t="shared" si="1"/>
+        <v>2.0001404402121101E-2</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="0"/>
+        <v>450299</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5">
+        <v>459304</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" si="1"/>
+        <v>1.9997823668273747E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="0"/>
+        <v>459304.00000000006</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13">
+        <v>2</v>
+      </c>
+      <c r="F15" s="13">
+        <v>3</v>
+      </c>
+      <c r="G15" s="13">
+        <v>4</v>
+      </c>
+      <c r="H15" s="13">
+        <v>5</v>
+      </c>
+      <c r="I15" s="13">
+        <v>6</v>
+      </c>
+      <c r="J15" s="13">
+        <v>7</v>
+      </c>
+      <c r="K15" s="13">
+        <v>8</v>
+      </c>
+      <c r="L15" s="13">
+        <v>9</v>
+      </c>
+      <c r="M15" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="5" cm="1">
+        <f t="array" ref="D16:M16">TRANSPOSE(D3:D12)</f>
+        <v>338800</v>
+      </c>
+      <c r="E16" s="5">
+        <v>355740</v>
+      </c>
+      <c r="F16" s="5">
+        <v>373527</v>
+      </c>
+      <c r="G16" s="5">
+        <v>388468</v>
+      </c>
+      <c r="H16" s="5">
+        <v>404007</v>
+      </c>
+      <c r="I16" s="5">
+        <v>416127</v>
+      </c>
+      <c r="J16" s="5">
+        <v>428611</v>
+      </c>
+      <c r="K16" s="5">
+        <v>441469</v>
+      </c>
+      <c r="L16" s="5">
+        <v>450299</v>
+      </c>
+      <c r="M16" s="5">
+        <v>459304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="5">
+        <f>M16/(B17-B18)</f>
+        <v>4593040</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="5">
+        <f>D16+D18</f>
+        <v>338800</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" ref="E20:L20" si="2">E16+E18</f>
+        <v>355740</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="2"/>
+        <v>373527</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="2"/>
+        <v>388468</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="2"/>
+        <v>404007</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="2"/>
+        <v>416127</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="2"/>
+        <v>428611</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="2"/>
+        <v>441469</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" si="2"/>
+        <v>5043339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="14">
+        <f>PV($B$17,D15,-D16)</f>
+        <v>302500.00000000023</v>
+      </c>
+      <c r="E24" s="14">
+        <f>PV(B17,1,E20)</f>
+        <v>-317625.00000000023</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="15">
+        <f>NPV(B17,D20:L20)</f>
+        <v>3729771.0148553862</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="16">
+        <f>D16/D26</f>
+        <v>9.0836675670057515E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5814EB0-B893-4CB7-9E2F-694C328C3373}">
+  <dimension ref="B4:N30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="N4" s="18"/>
+    </row>
+    <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M6" s="25"/>
+    </row>
+    <row r="7" spans="2:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="67"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="68"/>
+    </row>
+    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="20"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
+    </row>
+    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="20"/>
+      <c r="C12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="E12" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="47"/>
+      <c r="I12" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="47"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B13" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="59">
+        <v>500000</v>
+      </c>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59">
+        <v>600000</v>
+      </c>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59">
+        <v>405000</v>
+      </c>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59">
+        <v>400000</v>
+      </c>
+      <c r="J13" s="60"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="52">
+        <v>0.13</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52">
+        <v>0.13</v>
+      </c>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52">
+        <v>0.12</v>
+      </c>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="53"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="52">
+        <v>0.03</v>
+      </c>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52">
+        <v>0.05</v>
+      </c>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52">
+        <v>0.03</v>
+      </c>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52">
+        <v>0.02</v>
+      </c>
+      <c r="J15" s="53"/>
+    </row>
+    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="54">
+        <v>4000000</v>
+      </c>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54">
+        <v>6750000</v>
+      </c>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54">
+        <v>3000000</v>
+      </c>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54">
+        <v>4000000</v>
+      </c>
+      <c r="J16" s="55"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+    </row>
+    <row r="21" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
+    </row>
+    <row r="23" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="20"/>
+      <c r="C23" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="47"/>
+      <c r="E23" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="47"/>
+      <c r="G23" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="47"/>
+      <c r="I23" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="47"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="50">
+        <f>C13</f>
+        <v>500000</v>
+      </c>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50">
+        <f>E13</f>
+        <v>600000</v>
+      </c>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50">
+        <f>G13</f>
+        <v>405000</v>
+      </c>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50">
+        <f>I13</f>
+        <v>400000</v>
+      </c>
+      <c r="J24" s="51"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="48">
+        <f>C14-C15</f>
+        <v>0.1</v>
+      </c>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48">
+        <f>E14-E15</f>
+        <v>0.08</v>
+      </c>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48">
+        <f>G14-G15</f>
+        <v>0.09</v>
+      </c>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48">
+        <f>I14-I15</f>
+        <v>0.08</v>
+      </c>
+      <c r="J25" s="49"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="39">
+        <f>C24/C25</f>
+        <v>5000000</v>
+      </c>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39">
+        <f>E24/E25</f>
+        <v>7500000</v>
+      </c>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39">
+        <f>G24/G25</f>
+        <v>4500000</v>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39">
+        <f>I24/I25</f>
+        <v>5000000</v>
+      </c>
+      <c r="J26" s="40"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="42">
+        <f>C16</f>
+        <v>4000000</v>
+      </c>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42">
+        <f>E16</f>
+        <v>6750000</v>
+      </c>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42">
+        <f>G16</f>
+        <v>3000000</v>
+      </c>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42">
+        <f>I16</f>
+        <v>4000000</v>
+      </c>
+      <c r="J27" s="43"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="22"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="27"/>
+    </row>
+    <row r="29" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="44">
+        <f>C26-C27</f>
+        <v>1000000</v>
+      </c>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44">
+        <f>E26-E27</f>
+        <v>750000</v>
+      </c>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44">
+        <f>G26-G27</f>
+        <v>1500000</v>
+      </c>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44">
+        <f>I26-I27</f>
+        <v>1000000</v>
+      </c>
+      <c r="J29" s="45"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3390532E-39B7-4210-9565-80CC4287465E}">
+  <dimension ref="A1:I74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" customWidth="1"/>
+    <col min="6" max="9" width="19.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="10">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="10">
+        <f>C5</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20">
+        <f>B11</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="5">
+        <f>C19/C20</f>
+        <v>125000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="7">
+        <f>C21/12</f>
+        <v>10416.666666666666</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26">
+        <f>B13</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27">
+        <f>C26*12</f>
+        <v>240</v>
+      </c>
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="11">
+        <f>B12</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="16">
+        <f>B28/12</f>
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="14">
+        <f>PV(C29,C27,-C23)</f>
+        <v>1079423.1113715374</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36">
+        <f>B13-C6</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37">
+        <f>C36*12</f>
+        <v>180</v>
+      </c>
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="14">
+        <f>PV(C29,C37,-C23)</f>
+        <v>969348.32107285911</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="11">
+        <f>C7</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="11">
+        <f>B8</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="8">
+        <v>0</v>
+      </c>
+      <c r="D47" s="8">
+        <v>1</v>
+      </c>
+      <c r="E47" s="8">
+        <v>2</v>
+      </c>
+      <c r="F47" s="8">
+        <v>3</v>
+      </c>
+      <c r="G47" s="8">
+        <v>4</v>
+      </c>
+      <c r="H47" s="8">
+        <v>5</v>
+      </c>
+      <c r="I47" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="10">
+        <f>C5</f>
+        <v>150000</v>
+      </c>
+      <c r="E49">
+        <f>(1+$C$44)*D49</f>
+        <v>154500</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49:I49" si="0">(1+$C$44)*E49</f>
+        <v>159135</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>163909.05000000002</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>168826.32150000002</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>173891.11114500003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="37">
+        <f>-$C$21</f>
+        <v>-125000</v>
+      </c>
+      <c r="E51" s="37">
+        <f t="shared" ref="E51:H51" si="1">-$C$21</f>
+        <v>-125000</v>
+      </c>
+      <c r="F51" s="37">
+        <f t="shared" si="1"/>
+        <v>-125000</v>
+      </c>
+      <c r="G51" s="37">
+        <f t="shared" si="1"/>
+        <v>-125000</v>
+      </c>
+      <c r="H51" s="37">
+        <f t="shared" si="1"/>
+        <v>-125000</v>
+      </c>
+      <c r="I51" s="37"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>94</v>
+      </c>
+      <c r="H53" s="5">
+        <f>I49/C45</f>
+        <v>1932123.4571666671</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="38">
+        <f>-C39</f>
+        <v>-969348.32107285911</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="10">
+        <f>SUM(D49:D54)</f>
+        <v>25000</v>
+      </c>
+      <c r="E56" s="10">
+        <f t="shared" ref="E56:H56" si="2">SUM(E49:E54)</f>
+        <v>29500</v>
+      </c>
+      <c r="F56" s="10">
+        <f t="shared" si="2"/>
+        <v>34135</v>
+      </c>
+      <c r="G56" s="10">
+        <f t="shared" si="2"/>
+        <v>38909.050000000017</v>
+      </c>
+      <c r="H56" s="10">
+        <f t="shared" si="2"/>
+        <v>1006601.4575938081</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="11">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="14">
+        <f>NPV(C60,D56:H56)</f>
+        <v>666035.37145106529</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="14">
+        <f>C31</f>
+        <v>1079423.1113715374</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="38">
+        <f>C62</f>
+        <v>666035.37145106529</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="14">
+        <f>SUM(C66:C67)</f>
+        <v>1745458.4828226026</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" s="10">
+        <f>D49</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73" s="14">
+        <f>C68</f>
+        <v>1745458.4828226026</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="16">
+        <f>C72/C73</f>
+        <v>8.5937306144018469E-2</v>
       </c>
     </row>
   </sheetData>
